--- a/DateBase/orders/Nha Thu_2025-7-5.xlsx
+++ b/DateBase/orders/Nha Thu_2025-7-5.xlsx
@@ -1053,6 +1053,9 @@
       <c r="G2" t="str">
         <v>01071214155106955553104445853512151051510151515101051051010101520510555555515541510101051351055</v>
       </c>
+      <c r="H2" t="str">
+        <v>CNY</v>
+      </c>
     </row>
   </sheetData>
   <ignoredErrors>
